--- a/generated_docs/WR_89775268_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_062925.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>06/28/2025 to 06/29/25</t>
+          <t>06/23/2025 to 06/29/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89775268_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_062925.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3738.51</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>677.4300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>1616.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="13" t="inlineStr"/>
       <c r="H24" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,18 +1028,18 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E28" s="12" t="inlineStr">
@@ -1058,11 +1058,11 @@
         </is>
       </c>
       <c r="F28" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E30" s="12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1164,22 +1164,55 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr"/>
+      <c r="H32" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H32" s="16" t="n">
-        <v>3061.08</v>
+      <c r="H33" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>
@@ -1192,6 +1225,7 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89775268_WeekEnding_062925.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_062925.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>3738.51</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +805,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>0</v>
+        <v>677.4300000000001</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>0</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="13" t="inlineStr"/>
       <c r="H24" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="27">
@@ -1028,18 +1024,18 @@
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
@@ -1049,7 +1045,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E28" s="12" t="inlineStr">
@@ -1058,11 +1054,11 @@
         </is>
       </c>
       <c r="F28" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1069,7 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1117,7 +1113,7 @@
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E30" s="12" t="inlineStr">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1137,7 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr">
@@ -1164,55 +1160,22 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="15" t="inlineStr">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H33" s="16" t="n">
-        <v>0</v>
+      <c r="H32" s="16" t="n">
+        <v>3061.08</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>
@@ -1225,7 +1188,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
